--- a/data/case1/13/V2_14.xlsx
+++ b/data/case1/13/V2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999757697311</v>
+        <v>0.99999999487927749</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99620838277019086</v>
+        <v>0.99637210592182379</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.98775846642678078</v>
+        <v>0.98840924688190179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.98890607007721165</v>
+        <v>0.98841340580664194</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9768404914180433</v>
+        <v>0.97517223134352649</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94504913932884349</v>
+        <v>0.94270021312254282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93995500534591936</v>
+        <v>0.93739399681731106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93311325544328849</v>
+        <v>0.93002774649147202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.92528102353727326</v>
+        <v>0.92139233372909435</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.91836393895835555</v>
+        <v>0.91367012583305529</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.91738504743485016</v>
+        <v>0.91254927237045846</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.91577856041950756</v>
+        <v>0.91067277277829917</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.91009662127830682</v>
+        <v>0.90385783586598456</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.9084212891354696</v>
+        <v>0.90173372546861463</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.90815832788426354</v>
+        <v>0.90101109764592935</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.90840691023675668</v>
+        <v>0.89850452409977644</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.90469891120632706</v>
+        <v>0.89479650141142053</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.90358997517678441</v>
+        <v>0.89368757537341426</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99286970136548591</v>
+        <v>0.99307867085849844</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.96570707778482756</v>
+        <v>0.9663332805429059</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.95794962452843146</v>
+        <v>0.95881652540493345</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.95668509952481973</v>
+        <v>0.95755200244319738</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.97863970626315377</v>
+        <v>0.9813746946202897</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.96124987747793023</v>
+        <v>0.96835407482176294</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9547928228493634</v>
+        <v>0.96189711850397663</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94139376877786551</v>
+        <v>0.93904471955350854</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93654743604382829</v>
+        <v>0.93419817431090757</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.91507529193946346</v>
+        <v>0.9127253363626926</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.89980398129507289</v>
+        <v>0.89745389722883817</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.89323351503882131</v>
+        <v>0.8908834530360944</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.88557948429721656</v>
+        <v>0.88322955467565833</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.88390009701944616</v>
+        <v>0.88155020660701267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.88338006812442926</v>
+        <v>0.881030190481356</v>
       </c>
     </row>
   </sheetData>
